--- a/data-migration/xlsx_1900-/1908_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1908_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA51995-D1C7-4CC3-8F07-D55B2F606E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B18D3-D37B-49C1-A1BC-F295F12A6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3617,9 +3617,6 @@
     <t>egli_e</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>Dekan</t>
   </si>
   <si>
@@ -3690,6 +3687,9 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -4033,20 +4033,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1908</v>
       </c>
@@ -4092,13 +4092,13 @@
         <v>801</v>
       </c>
       <c r="H2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I2" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1908</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1908</v>
       </c>
@@ -4150,10 +4150,10 @@
         <v>1181</v>
       </c>
       <c r="J4" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1908</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1908</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1908</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1908</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1908</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1908</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1908</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1908</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1908</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1908</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1908</v>
       </c>
@@ -4465,10 +4465,10 @@
         <v>1181</v>
       </c>
       <c r="J16" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1908</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1908</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1908</v>
       </c>
@@ -4546,10 +4546,10 @@
         <v>1181</v>
       </c>
       <c r="J19" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1908</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1908</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1908</v>
       </c>
@@ -4627,10 +4627,10 @@
         <v>1181</v>
       </c>
       <c r="J22" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1908</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1908</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1908</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1908</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1908</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1908</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>826</v>
       </c>
       <c r="H28" t="s">
-        <v>1194</v>
+        <v>1218</v>
       </c>
       <c r="I28" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1908</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1908</v>
       </c>
@@ -4838,10 +4838,10 @@
         <v>1181</v>
       </c>
       <c r="J30" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1908</v>
       </c>
@@ -4867,10 +4867,10 @@
         <v>1181</v>
       </c>
       <c r="J31" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1908</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1908</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1908</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1908</v>
       </c>
@@ -4968,13 +4968,13 @@
         <v>832</v>
       </c>
       <c r="H35" t="s">
-        <v>1194</v>
+        <v>1218</v>
       </c>
       <c r="I35" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1908</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1908</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1908</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1908</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1908</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1908</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1908</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1908</v>
       </c>
@@ -5176,13 +5176,13 @@
         <v>840</v>
       </c>
       <c r="H43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I43" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1908</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1908</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1908</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1908</v>
       </c>
@@ -5280,13 +5280,13 @@
         <v>844</v>
       </c>
       <c r="H47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I47" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1908</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1908</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1908</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1908</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1908</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1908</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1908</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1908</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1908</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1908</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1908</v>
       </c>
@@ -5569,10 +5569,10 @@
         <v>1071</v>
       </c>
       <c r="I58" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1908</v>
       </c>
@@ -5595,10 +5595,10 @@
         <v>1156</v>
       </c>
       <c r="I59" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1908</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1908</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1908</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1908</v>
       </c>
@@ -5702,10 +5702,10 @@
         <v>1181</v>
       </c>
       <c r="J63" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1908</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1908</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1908</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1908</v>
       </c>
@@ -5803,13 +5803,13 @@
         <v>862</v>
       </c>
       <c r="H67" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I67" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1908</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1908</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1908</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1908</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1908</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1908</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1908</v>
       </c>
@@ -5988,10 +5988,10 @@
         <v>1072</v>
       </c>
       <c r="I74" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1908</v>
       </c>
@@ -6014,16 +6014,16 @@
         <v>1177</v>
       </c>
       <c r="I75" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="K75" t="s">
         <v>1073</v>
       </c>
       <c r="L75" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1908</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1908</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1908</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1908</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1908</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1908</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1908</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1908</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1908</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1908</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1908</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1908</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1908</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1908</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1908</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1908</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1908</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1908</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1908</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1908</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1908</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1908</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1908</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1908</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1908</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1908</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1908</v>
       </c>
@@ -6737,10 +6737,10 @@
         <v>1181</v>
       </c>
       <c r="J102" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1908</v>
       </c>
@@ -6766,10 +6766,10 @@
         <v>1181</v>
       </c>
       <c r="J103" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1908</v>
       </c>
@@ -6795,10 +6795,10 @@
         <v>1181</v>
       </c>
       <c r="J104" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1908</v>
       </c>
@@ -6824,10 +6824,10 @@
         <v>1181</v>
       </c>
       <c r="J105" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1908</v>
       </c>
@@ -6853,10 +6853,10 @@
         <v>1181</v>
       </c>
       <c r="J106" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1908</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1908</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1908</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1908</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1908</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1908</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1908</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1908</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1908</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1908</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1908</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1908</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1908</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1908</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1908</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1908</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1908</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1908</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1908</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1908</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1908</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1908</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1908</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1908</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1908</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1908</v>
       </c>
@@ -7526,13 +7526,13 @@
         <v>877</v>
       </c>
       <c r="H132" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I132" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1908</v>
       </c>
@@ -7552,13 +7552,13 @@
         <v>821</v>
       </c>
       <c r="H133" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I133" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1908</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1908</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1908</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1908</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1908</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1908</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1908</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1908</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1908</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>821</v>
       </c>
       <c r="H142" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I142" t="s">
         <v>1182</v>
@@ -7798,7 +7798,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1908</v>
       </c>
@@ -7824,13 +7824,13 @@
         <v>1182</v>
       </c>
       <c r="K143" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="L143" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1908</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1908</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1908</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1908</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1908</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1908</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1908</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1908</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1908</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1908</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1908</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1908</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1908</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1908</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1908</v>
       </c>
@@ -8214,13 +8214,13 @@
         <v>821</v>
       </c>
       <c r="H158" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I158" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1908</v>
       </c>
@@ -8240,13 +8240,13 @@
         <v>920</v>
       </c>
       <c r="H159" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I159" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1908</v>
       </c>
@@ -8266,13 +8266,13 @@
         <v>865</v>
       </c>
       <c r="H160" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I160" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1908</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1908</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1908</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1908</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1908</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1908</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1908</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1908</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1908</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1908</v>
       </c>
@@ -8526,13 +8526,13 @@
         <v>877</v>
       </c>
       <c r="H170" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I170" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1908</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1908</v>
       </c>
@@ -8593,10 +8593,10 @@
         <v>1098</v>
       </c>
       <c r="I172" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1908</v>
       </c>
@@ -8619,10 +8619,10 @@
         <v>1098</v>
       </c>
       <c r="I173" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1908</v>
       </c>
@@ -8645,10 +8645,10 @@
         <v>1098</v>
       </c>
       <c r="I174" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1908</v>
       </c>
@@ -8671,10 +8671,10 @@
         <v>1160</v>
       </c>
       <c r="I175" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1908</v>
       </c>
@@ -8697,10 +8697,10 @@
         <v>1160</v>
       </c>
       <c r="I176" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1908</v>
       </c>
@@ -8723,10 +8723,10 @@
         <v>1160</v>
       </c>
       <c r="I177" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1908</v>
       </c>
@@ -8749,10 +8749,10 @@
         <v>1160</v>
       </c>
       <c r="I178" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1908</v>
       </c>
@@ -8772,13 +8772,13 @@
         <v>932</v>
       </c>
       <c r="H179" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I179" t="s">
         <v>1217</v>
       </c>
-      <c r="I179" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1908</v>
       </c>
@@ -8798,13 +8798,13 @@
         <v>933</v>
       </c>
       <c r="H180" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I180" t="s">
         <v>1217</v>
       </c>
-      <c r="I180" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1908</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1908</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1908</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1908</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1908</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1908</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1908</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1908</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1908</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1908</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1908</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1908</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1908</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1908</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1908</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1908</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1908</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1908</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1908</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1908</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1908</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1908</v>
       </c>
@@ -9376,10 +9376,10 @@
         <v>1191</v>
       </c>
       <c r="J202" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1908</v>
       </c>
@@ -9405,10 +9405,10 @@
         <v>1191</v>
       </c>
       <c r="J203" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1908</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1908</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1908</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1908</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1908</v>
       </c>
@@ -9538,10 +9538,10 @@
         <v>1181</v>
       </c>
       <c r="J208" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1908</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1908</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1908</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1908</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1908</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1908</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1908</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1908</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1908</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1908</v>
       </c>
@@ -9801,10 +9801,10 @@
         <v>1181</v>
       </c>
       <c r="J218" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1908</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1908</v>
       </c>
@@ -9850,13 +9850,13 @@
         <v>963</v>
       </c>
       <c r="H220" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I220" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1908</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>1181</v>
       </c>
       <c r="J221" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1908</v>
       </c>
@@ -9911,10 +9911,10 @@
         <v>1181</v>
       </c>
       <c r="J222" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1908</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1908</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1908</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1908</v>
       </c>
@@ -10012,13 +10012,13 @@
         <v>966</v>
       </c>
       <c r="H226" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I226" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1908</v>
       </c>
@@ -10038,13 +10038,13 @@
         <v>967</v>
       </c>
       <c r="H227" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I227" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1908</v>
       </c>
@@ -10064,13 +10064,13 @@
         <v>968</v>
       </c>
       <c r="H228" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I228" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1908</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1908</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1908</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1908</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1908</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1908</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1908</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1908</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1908</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1908</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1908</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1908</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1908</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1908</v>
       </c>
@@ -10428,13 +10428,13 @@
         <v>877</v>
       </c>
       <c r="H242" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I242" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1908</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1908</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1908</v>
       </c>
@@ -10506,13 +10506,13 @@
         <v>832</v>
       </c>
       <c r="H245" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I245" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1908</v>
       </c>
@@ -10532,13 +10532,13 @@
         <v>826</v>
       </c>
       <c r="H246" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I246" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1908</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1908</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1908</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1908</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1908</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1908</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1908</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1908</v>
       </c>
@@ -10740,13 +10740,13 @@
         <v>821</v>
       </c>
       <c r="H254" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I254" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1908</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1908</v>
       </c>
@@ -10792,13 +10792,13 @@
         <v>979</v>
       </c>
       <c r="H256" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I256" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1908</v>
       </c>
@@ -10818,13 +10818,13 @@
         <v>975</v>
       </c>
       <c r="H257" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I257" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1908</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1908</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1908</v>
       </c>
@@ -10896,13 +10896,13 @@
         <v>813</v>
       </c>
       <c r="H260" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I260" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1908</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1908</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1908</v>
       </c>
@@ -10974,13 +10974,13 @@
         <v>982</v>
       </c>
       <c r="H263" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I263" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1908</v>
       </c>
@@ -11000,13 +11000,13 @@
         <v>983</v>
       </c>
       <c r="H264" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I264" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1908</v>
       </c>
@@ -11026,13 +11026,13 @@
         <v>984</v>
       </c>
       <c r="H265" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I265" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1908</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1908</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1908</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1908</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1908</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1908</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1908</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1908</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1908</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1908</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1908</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1908</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1908</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1908</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1908</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1908</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1908</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1908</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1908</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1908</v>
       </c>
@@ -11549,13 +11549,13 @@
         <v>821</v>
       </c>
       <c r="H285" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I285" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1908</v>
       </c>
@@ -11575,13 +11575,13 @@
         <v>805</v>
       </c>
       <c r="H286" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I286" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1908</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1908</v>
       </c>
@@ -11627,13 +11627,13 @@
         <v>997</v>
       </c>
       <c r="H288" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I288" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1908</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1908</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1908</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1908</v>
       </c>
@@ -11731,13 +11731,13 @@
         <v>821</v>
       </c>
       <c r="H292" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I292" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1908</v>
       </c>
@@ -11757,13 +11757,13 @@
         <v>911</v>
       </c>
       <c r="H293" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I293" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1908</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1908</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1908</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1908</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1908</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1908</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1908</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1908</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1908</v>
       </c>
@@ -11994,13 +11994,13 @@
         <v>864</v>
       </c>
       <c r="H302" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I302" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1908</v>
       </c>
@@ -12020,13 +12020,13 @@
         <v>1003</v>
       </c>
       <c r="H303" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I303" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1908</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1908</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1908</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1908</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1908</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1908</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1908</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1908</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1908</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1908</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1908</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1908</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1908</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1908</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1908</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1908</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1908</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1908</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1908</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1908</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1908</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1908</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1908</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1908</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1908</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1908</v>
       </c>
@@ -12711,10 +12711,10 @@
         <v>1181</v>
       </c>
       <c r="J329" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1908</v>
       </c>
@@ -12740,10 +12740,10 @@
         <v>1181</v>
       </c>
       <c r="J330" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1908</v>
       </c>
@@ -12769,10 +12769,10 @@
         <v>1181</v>
       </c>
       <c r="J331" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1908</v>
       </c>
@@ -12798,10 +12798,10 @@
         <v>1181</v>
       </c>
       <c r="J332" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1908</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1908</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1908</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1908</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1908</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1908</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1908</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1908</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1908</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1908</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1908</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1908</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1908</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1908</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1908</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1908</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1908</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1908</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1908</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1908</v>
       </c>
@@ -13321,7 +13321,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1908</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1908</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1908</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1908</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1908</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1908</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1908</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1908</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1908</v>
       </c>
@@ -13567,13 +13567,13 @@
         <v>1032</v>
       </c>
       <c r="H361" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I361" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1908</v>
       </c>
@@ -13596,13 +13596,13 @@
         <v>1033</v>
       </c>
       <c r="H362" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I362" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1908</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1908</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1908</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1908</v>
       </c>
@@ -13700,13 +13700,13 @@
         <v>1036</v>
       </c>
       <c r="H366" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I366" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1908</v>
       </c>
@@ -13732,10 +13732,10 @@
         <v>1181</v>
       </c>
       <c r="J367" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1908</v>
       </c>
@@ -13761,10 +13761,10 @@
         <v>1181</v>
       </c>
       <c r="J368" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1908</v>
       </c>
@@ -13790,10 +13790,10 @@
         <v>1181</v>
       </c>
       <c r="J369" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1908</v>
       </c>
@@ -13819,10 +13819,10 @@
         <v>1181</v>
       </c>
       <c r="J370" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1908</v>
       </c>
@@ -13848,10 +13848,10 @@
         <v>1181</v>
       </c>
       <c r="J371" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1908</v>
       </c>
@@ -13877,10 +13877,10 @@
         <v>1181</v>
       </c>
       <c r="J372" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1908</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1908</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1908</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1908</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1908</v>
       </c>
@@ -13998,13 +13998,13 @@
         <v>1040</v>
       </c>
       <c r="H377" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I377" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1908</v>
       </c>
@@ -14024,13 +14024,13 @@
         <v>1041</v>
       </c>
       <c r="H378" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I378" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1908</v>
       </c>
@@ -14050,13 +14050,13 @@
         <v>1042</v>
       </c>
       <c r="H379" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I379" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1908</v>
       </c>
@@ -14076,13 +14076,13 @@
         <v>1043</v>
       </c>
       <c r="H380" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I380" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1908</v>
       </c>
@@ -14102,13 +14102,13 @@
         <v>1044</v>
       </c>
       <c r="H381" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I381" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1908</v>
       </c>
@@ -14128,13 +14128,13 @@
         <v>1045</v>
       </c>
       <c r="H382" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I382" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1908</v>
       </c>
@@ -14154,13 +14154,13 @@
         <v>1015</v>
       </c>
       <c r="H383" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I383" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1908</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1908</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1908</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1908</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1908</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1908</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1908</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1908</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1908</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1908</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1908</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1908</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1908</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1908</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1908</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1908</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1908</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1908</v>
       </c>
